--- a/DECS Excel Add-Ins/test files/test_combine_rows.xlsx
+++ b/DECS Excel Add-Ins/test files/test_combine_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE613A71-E55B-4C54-869F-4D24F33110C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348AA5C-33D2-4AB9-BEEB-43000B3BE5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E6F9CE90-5FA0-4E77-9FA8-7FB3CE5BD040}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Coverage</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>Escondido</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>test "close enough" address</t>
+  </si>
+  <si>
+    <t>address changed</t>
+  </si>
+  <si>
+    <t>insurer changed</t>
+  </si>
+  <si>
+    <t>patient changed</t>
+  </si>
+  <si>
+    <t>gap in insurance</t>
   </si>
 </sst>
 </file>
@@ -452,11 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7850A3D3-D7C6-4CEF-9931-5B05E7B34F0C}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,9 +489,10 @@
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -504,8 +523,11 @@
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12345</v>
       </c>
@@ -537,7 +559,7 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12345</v>
       </c>
@@ -568,8 +590,11 @@
       <c r="J3" s="1">
         <v>44469</v>
       </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12345</v>
       </c>
@@ -600,8 +625,11 @@
       <c r="J4" s="1">
         <v>45291</v>
       </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12345</v>
       </c>
@@ -632,8 +660,11 @@
       <c r="J5" s="1">
         <v>45291</v>
       </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23456</v>
       </c>
@@ -663,6 +694,44 @@
       </c>
       <c r="J6" s="1">
         <v>45291</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43997</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43982</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>92079</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43831</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45291</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
